--- a/data/RSSI Collection Plan.xlsx
+++ b/data/RSSI Collection Plan.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\distance_sensing_ble\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niel.cansino\repositories\distance_sensing_ble\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A094395-1AE5-40D2-8563-B4AD8C50ECEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A15717-6F5C-41B6-BAA3-E0E9EEA828ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
+    <sheet name="0 degrees" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="111">
   <si>
     <t>Distance</t>
     <phoneticPr fontId="1"/>
@@ -124,7 +125,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -135,7 +136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -152,22 +153,277 @@
     <t>Sampling time: 30 seconds</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>0.250m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -51 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -43 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -41 </t>
+  </si>
+  <si>
+    <t>0.5m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -59 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -58 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -63 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -66 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -64 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -68 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -54 </t>
+  </si>
+  <si>
+    <t>.75m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -70 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -71 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -69 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -74 </t>
+  </si>
+  <si>
+    <t>1.0m</t>
+  </si>
+  <si>
+    <t>1.5m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -89 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -73 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -81 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -67 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -79 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -96 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -76 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -78 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -77 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -92 </t>
+  </si>
+  <si>
+    <t>2.0m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -87 </t>
+  </si>
+  <si>
+    <t>2.5m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -93 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -101 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -106 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -98 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -91 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -102 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -86 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -95 </t>
+  </si>
+  <si>
+    <t>3.0m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -104 </t>
+  </si>
+  <si>
+    <t>3.5m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -107 </t>
+  </si>
+  <si>
+    <t>4.0m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -105 </t>
+  </si>
+  <si>
+    <t>4.5m</t>
+  </si>
+  <si>
+    <t>5.0m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -94 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -108 </t>
+  </si>
+  <si>
+    <t>7.5m</t>
+  </si>
+  <si>
+    <t>10.0m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -90 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -111 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rssi: -110 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -176,7 +432,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -184,9 +440,17 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -210,13 +474,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,8 +527,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7336491" y="969869"/>
-          <a:ext cx="7402126" cy="8391443"/>
+          <a:off x="6705226" y="775634"/>
+          <a:ext cx="6621450" cy="6691884"/>
           <a:chOff x="7336491" y="969869"/>
           <a:chExt cx="7402126" cy="8391443"/>
         </a:xfrm>
@@ -1411,33 +1676,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5">
       <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -1459,7 +1724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -1470,7 +1735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -1481,7 +1746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -1492,47 +1757,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5">
       <c r="C10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5">
       <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5">
       <c r="C12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5">
       <c r="C13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5">
       <c r="C14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5">
       <c r="C15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5">
       <c r="C16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>10</v>
       </c>
@@ -1543,4 +1808,3633 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D220E9A3-903B-4742-8653-E6EFA20F2560}">
+  <dimension ref="A1:O85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" t="s">
+        <v>79</v>
+      </c>
+      <c r="O22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" t="s">
+        <v>73</v>
+      </c>
+      <c r="N24" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" t="s">
+        <v>108</v>
+      </c>
+      <c r="O26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N27" t="s">
+        <v>74</v>
+      </c>
+      <c r="O27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N28" t="s">
+        <v>69</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" t="s">
+        <v>79</v>
+      </c>
+      <c r="O29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" t="s">
+        <v>73</v>
+      </c>
+      <c r="N30" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L31" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" t="s">
+        <v>70</v>
+      </c>
+      <c r="N31" t="s">
+        <v>73</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" t="s">
+        <v>67</v>
+      </c>
+      <c r="N32" t="s">
+        <v>77</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" t="s">
+        <v>83</v>
+      </c>
+      <c r="K33" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" t="s">
+        <v>60</v>
+      </c>
+      <c r="N33" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34" t="s">
+        <v>74</v>
+      </c>
+      <c r="L34" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34" t="s">
+        <v>60</v>
+      </c>
+      <c r="N34" t="s">
+        <v>75</v>
+      </c>
+      <c r="O34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" t="s">
+        <v>61</v>
+      </c>
+      <c r="L35" t="s">
+        <v>86</v>
+      </c>
+      <c r="M35" t="s">
+        <v>70</v>
+      </c>
+      <c r="N35" t="s">
+        <v>70</v>
+      </c>
+      <c r="O35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K36" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" t="s">
+        <v>70</v>
+      </c>
+      <c r="M36" t="s">
+        <v>67</v>
+      </c>
+      <c r="N36" t="s">
+        <v>61</v>
+      </c>
+      <c r="O36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" t="s">
+        <v>75</v>
+      </c>
+      <c r="N37" t="s">
+        <v>74</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" t="s">
+        <v>58</v>
+      </c>
+      <c r="N38" t="s">
+        <v>72</v>
+      </c>
+      <c r="O38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39" t="s">
+        <v>75</v>
+      </c>
+      <c r="L39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M39" t="s">
+        <v>75</v>
+      </c>
+      <c r="N39" t="s">
+        <v>74</v>
+      </c>
+      <c r="O39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" t="s">
+        <v>73</v>
+      </c>
+      <c r="L40" t="s">
+        <v>101</v>
+      </c>
+      <c r="M40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N40" t="s">
+        <v>74</v>
+      </c>
+      <c r="O40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" t="s">
+        <v>61</v>
+      </c>
+      <c r="K41" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41" t="s">
+        <v>73</v>
+      </c>
+      <c r="M41" t="s">
+        <v>74</v>
+      </c>
+      <c r="N41" t="s">
+        <v>74</v>
+      </c>
+      <c r="O41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" t="s">
+        <v>73</v>
+      </c>
+      <c r="M42" t="s">
+        <v>77</v>
+      </c>
+      <c r="N42" t="s">
+        <v>70</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+      <c r="J43" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" t="s">
+        <v>67</v>
+      </c>
+      <c r="L43" t="s">
+        <v>77</v>
+      </c>
+      <c r="M43" t="s">
+        <v>73</v>
+      </c>
+      <c r="N43" t="s">
+        <v>67</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44" t="s">
+        <v>58</v>
+      </c>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44" t="s">
+        <v>61</v>
+      </c>
+      <c r="L44" t="s">
+        <v>79</v>
+      </c>
+      <c r="M44" t="s">
+        <v>66</v>
+      </c>
+      <c r="N44" t="s">
+        <v>77</v>
+      </c>
+      <c r="O44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s">
+        <v>86</v>
+      </c>
+      <c r="K45" t="s">
+        <v>77</v>
+      </c>
+      <c r="L45" t="s">
+        <v>58</v>
+      </c>
+      <c r="M45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J46" t="s">
+        <v>83</v>
+      </c>
+      <c r="K46" t="s">
+        <v>67</v>
+      </c>
+      <c r="L46" t="s">
+        <v>67</v>
+      </c>
+      <c r="M46" t="s">
+        <v>77</v>
+      </c>
+      <c r="N46" t="s">
+        <v>73</v>
+      </c>
+      <c r="O46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47" t="s">
+        <v>61</v>
+      </c>
+      <c r="L47" t="s">
+        <v>83</v>
+      </c>
+      <c r="M47" t="s">
+        <v>66</v>
+      </c>
+      <c r="N47" t="s">
+        <v>61</v>
+      </c>
+      <c r="O47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48" t="s">
+        <v>58</v>
+      </c>
+      <c r="J48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48" t="s">
+        <v>76</v>
+      </c>
+      <c r="L48" t="s">
+        <v>74</v>
+      </c>
+      <c r="M48" t="s">
+        <v>70</v>
+      </c>
+      <c r="N48" t="s">
+        <v>75</v>
+      </c>
+      <c r="O48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+      <c r="K49" t="s">
+        <v>70</v>
+      </c>
+      <c r="L49" t="s">
+        <v>67</v>
+      </c>
+      <c r="M49" t="s">
+        <v>73</v>
+      </c>
+      <c r="N49" t="s">
+        <v>104</v>
+      </c>
+      <c r="O49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+      <c r="K50" t="s">
+        <v>56</v>
+      </c>
+      <c r="L50" t="s">
+        <v>91</v>
+      </c>
+      <c r="M50" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" t="s">
+        <v>73</v>
+      </c>
+      <c r="O50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s">
+        <v>58</v>
+      </c>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L51" t="s">
+        <v>70</v>
+      </c>
+      <c r="M51" t="s">
+        <v>65</v>
+      </c>
+      <c r="N51" t="s">
+        <v>67</v>
+      </c>
+      <c r="O51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" t="s">
+        <v>70</v>
+      </c>
+      <c r="K52" t="s">
+        <v>75</v>
+      </c>
+      <c r="L52" t="s">
+        <v>73</v>
+      </c>
+      <c r="M52" t="s">
+        <v>64</v>
+      </c>
+      <c r="N52" t="s">
+        <v>74</v>
+      </c>
+      <c r="O52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+      <c r="J53" t="s">
+        <v>70</v>
+      </c>
+      <c r="K53" t="s">
+        <v>66</v>
+      </c>
+      <c r="L53" t="s">
+        <v>77</v>
+      </c>
+      <c r="M53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N53" t="s">
+        <v>70</v>
+      </c>
+      <c r="O53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J54" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" t="s">
+        <v>72</v>
+      </c>
+      <c r="L54" t="s">
+        <v>61</v>
+      </c>
+      <c r="M54" t="s">
+        <v>83</v>
+      </c>
+      <c r="N54" t="s">
+        <v>73</v>
+      </c>
+      <c r="O54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55" t="s">
+        <v>70</v>
+      </c>
+      <c r="J55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L55" t="s">
+        <v>93</v>
+      </c>
+      <c r="M55" t="s">
+        <v>70</v>
+      </c>
+      <c r="N55" t="s">
+        <v>72</v>
+      </c>
+      <c r="O55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56" t="s">
+        <v>67</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+      <c r="K56" t="s">
+        <v>35</v>
+      </c>
+      <c r="L56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M56" t="s">
+        <v>61</v>
+      </c>
+      <c r="N56" t="s">
+        <v>73</v>
+      </c>
+      <c r="O56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57" t="s">
+        <v>66</v>
+      </c>
+      <c r="J57" t="s">
+        <v>77</v>
+      </c>
+      <c r="K57" t="s">
+        <v>73</v>
+      </c>
+      <c r="L57" t="s">
+        <v>64</v>
+      </c>
+      <c r="M57" t="s">
+        <v>56</v>
+      </c>
+      <c r="N57" t="s">
+        <v>61</v>
+      </c>
+      <c r="O57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J58" t="s">
+        <v>74</v>
+      </c>
+      <c r="K58" t="s">
+        <v>79</v>
+      </c>
+      <c r="L58" t="s">
+        <v>61</v>
+      </c>
+      <c r="M58" t="s">
+        <v>70</v>
+      </c>
+      <c r="N58" t="s">
+        <v>73</v>
+      </c>
+      <c r="O58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" t="s">
+        <v>92</v>
+      </c>
+      <c r="I59" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L59" t="s">
+        <v>86</v>
+      </c>
+      <c r="M59" t="s">
+        <v>73</v>
+      </c>
+      <c r="N59" t="s">
+        <v>93</v>
+      </c>
+      <c r="O59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H60" t="s">
+        <v>67</v>
+      </c>
+      <c r="I60" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60" t="s">
+        <v>73</v>
+      </c>
+      <c r="K60" t="s">
+        <v>60</v>
+      </c>
+      <c r="L60" t="s">
+        <v>74</v>
+      </c>
+      <c r="M60" t="s">
+        <v>77</v>
+      </c>
+      <c r="N60" t="s">
+        <v>61</v>
+      </c>
+      <c r="O60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" t="s">
+        <v>73</v>
+      </c>
+      <c r="I61" t="s">
+        <v>75</v>
+      </c>
+      <c r="J61" t="s">
+        <v>70</v>
+      </c>
+      <c r="K61" t="s">
+        <v>75</v>
+      </c>
+      <c r="L61" t="s">
+        <v>92</v>
+      </c>
+      <c r="M61" t="s">
+        <v>77</v>
+      </c>
+      <c r="N61" t="s">
+        <v>77</v>
+      </c>
+      <c r="O61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" t="s">
+        <v>73</v>
+      </c>
+      <c r="K62" t="s">
+        <v>70</v>
+      </c>
+      <c r="L62" t="s">
+        <v>73</v>
+      </c>
+      <c r="M62" t="s">
+        <v>77</v>
+      </c>
+      <c r="N62" t="s">
+        <v>99</v>
+      </c>
+      <c r="O62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63" t="s">
+        <v>55</v>
+      </c>
+      <c r="J63" t="s">
+        <v>60</v>
+      </c>
+      <c r="K63" t="s">
+        <v>58</v>
+      </c>
+      <c r="L63" t="s">
+        <v>77</v>
+      </c>
+      <c r="M63" t="s">
+        <v>74</v>
+      </c>
+      <c r="N63" t="s">
+        <v>70</v>
+      </c>
+      <c r="O63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" t="s">
+        <v>61</v>
+      </c>
+      <c r="I64" t="s">
+        <v>66</v>
+      </c>
+      <c r="J64" t="s">
+        <v>79</v>
+      </c>
+      <c r="K64" t="s">
+        <v>64</v>
+      </c>
+      <c r="L64" t="s">
+        <v>66</v>
+      </c>
+      <c r="M64" t="s">
+        <v>73</v>
+      </c>
+      <c r="N64" t="s">
+        <v>75</v>
+      </c>
+      <c r="O64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65" t="s">
+        <v>59</v>
+      </c>
+      <c r="H65" t="s">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+      <c r="K65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L65" t="s">
+        <v>60</v>
+      </c>
+      <c r="M65" t="s">
+        <v>77</v>
+      </c>
+      <c r="N65" t="s">
+        <v>73</v>
+      </c>
+      <c r="O65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" t="s">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s">
+        <v>64</v>
+      </c>
+      <c r="I66" t="s">
+        <v>70</v>
+      </c>
+      <c r="J66" t="s">
+        <v>67</v>
+      </c>
+      <c r="K66" t="s">
+        <v>61</v>
+      </c>
+      <c r="L66" t="s">
+        <v>104</v>
+      </c>
+      <c r="M66" t="s">
+        <v>67</v>
+      </c>
+      <c r="N66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s">
+        <v>58</v>
+      </c>
+      <c r="I67" t="s">
+        <v>56</v>
+      </c>
+      <c r="J67" t="s">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s">
+        <v>60</v>
+      </c>
+      <c r="L67" t="s">
+        <v>67</v>
+      </c>
+      <c r="M67" t="s">
+        <v>83</v>
+      </c>
+      <c r="N67" t="s">
+        <v>74</v>
+      </c>
+      <c r="O67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15">
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" t="s">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s">
+        <v>58</v>
+      </c>
+      <c r="H68" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s">
+        <v>67</v>
+      </c>
+      <c r="J68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K68" t="s">
+        <v>73</v>
+      </c>
+      <c r="L68" t="s">
+        <v>86</v>
+      </c>
+      <c r="M68" t="s">
+        <v>74</v>
+      </c>
+      <c r="N68" t="s">
+        <v>64</v>
+      </c>
+      <c r="O68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15">
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" t="s">
+        <v>58</v>
+      </c>
+      <c r="H69" t="s">
+        <v>66</v>
+      </c>
+      <c r="I69" t="s">
+        <v>70</v>
+      </c>
+      <c r="J69" t="s">
+        <v>59</v>
+      </c>
+      <c r="K69" t="s">
+        <v>69</v>
+      </c>
+      <c r="L69" t="s">
+        <v>73</v>
+      </c>
+      <c r="M69" t="s">
+        <v>58</v>
+      </c>
+      <c r="N69" t="s">
+        <v>75</v>
+      </c>
+      <c r="O69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15">
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" t="s">
+        <v>52</v>
+      </c>
+      <c r="G70" t="s">
+        <v>60</v>
+      </c>
+      <c r="H70" t="s">
+        <v>56</v>
+      </c>
+      <c r="I70" t="s">
+        <v>61</v>
+      </c>
+      <c r="J70" t="s">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s">
+        <v>67</v>
+      </c>
+      <c r="L70" t="s">
+        <v>79</v>
+      </c>
+      <c r="M70" t="s">
+        <v>73</v>
+      </c>
+      <c r="N70" t="s">
+        <v>66</v>
+      </c>
+      <c r="O70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" t="s">
+        <v>68</v>
+      </c>
+      <c r="G71" t="s">
+        <v>52</v>
+      </c>
+      <c r="H71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71" t="s">
+        <v>75</v>
+      </c>
+      <c r="J71" t="s">
+        <v>74</v>
+      </c>
+      <c r="K71" t="s">
+        <v>75</v>
+      </c>
+      <c r="L71" t="s">
+        <v>64</v>
+      </c>
+      <c r="M71" t="s">
+        <v>70</v>
+      </c>
+      <c r="N71" t="s">
+        <v>74</v>
+      </c>
+      <c r="O71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" t="s">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s">
+        <v>86</v>
+      </c>
+      <c r="H72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72" t="s">
+        <v>73</v>
+      </c>
+      <c r="J72" t="s">
+        <v>97</v>
+      </c>
+      <c r="K72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L72" t="s">
+        <v>72</v>
+      </c>
+      <c r="M72" t="s">
+        <v>76</v>
+      </c>
+      <c r="N72" t="s">
+        <v>75</v>
+      </c>
+      <c r="O72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15">
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
+        <v>55</v>
+      </c>
+      <c r="I73" t="s">
+        <v>59</v>
+      </c>
+      <c r="J73" t="s">
+        <v>60</v>
+      </c>
+      <c r="K73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L73" t="s">
+        <v>74</v>
+      </c>
+      <c r="M73" t="s">
+        <v>67</v>
+      </c>
+      <c r="N73" t="s">
+        <v>61</v>
+      </c>
+      <c r="O73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15">
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" t="s">
+        <v>56</v>
+      </c>
+      <c r="G74" t="s">
+        <v>64</v>
+      </c>
+      <c r="H74" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" t="s">
+        <v>67</v>
+      </c>
+      <c r="J74" t="s">
+        <v>80</v>
+      </c>
+      <c r="K74" t="s">
+        <v>58</v>
+      </c>
+      <c r="L74" t="s">
+        <v>104</v>
+      </c>
+      <c r="M74" t="s">
+        <v>76</v>
+      </c>
+      <c r="N74" t="s">
+        <v>73</v>
+      </c>
+      <c r="O74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15">
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" t="s">
+        <v>56</v>
+      </c>
+      <c r="H75" t="s">
+        <v>74</v>
+      </c>
+      <c r="I75" t="s">
+        <v>61</v>
+      </c>
+      <c r="J75" t="s">
+        <v>58</v>
+      </c>
+      <c r="K75" t="s">
+        <v>61</v>
+      </c>
+      <c r="L75" t="s">
+        <v>61</v>
+      </c>
+      <c r="M75" t="s">
+        <v>66</v>
+      </c>
+      <c r="N75" t="s">
+        <v>61</v>
+      </c>
+      <c r="O75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76" t="s">
+        <v>58</v>
+      </c>
+      <c r="J76" t="s">
+        <v>70</v>
+      </c>
+      <c r="K76" t="s">
+        <v>61</v>
+      </c>
+      <c r="L76" t="s">
+        <v>73</v>
+      </c>
+      <c r="M76" t="s">
+        <v>90</v>
+      </c>
+      <c r="N76" t="s">
+        <v>73</v>
+      </c>
+      <c r="O76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15">
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" t="s">
+        <v>45</v>
+      </c>
+      <c r="G77" t="s">
+        <v>59</v>
+      </c>
+      <c r="H77" t="s">
+        <v>56</v>
+      </c>
+      <c r="I77" t="s">
+        <v>70</v>
+      </c>
+      <c r="J77" t="s">
+        <v>60</v>
+      </c>
+      <c r="K77" t="s">
+        <v>64</v>
+      </c>
+      <c r="L77" t="s">
+        <v>77</v>
+      </c>
+      <c r="M77" t="s">
+        <v>61</v>
+      </c>
+      <c r="N77" t="s">
+        <v>67</v>
+      </c>
+      <c r="O77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15">
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" t="s">
+        <v>73</v>
+      </c>
+      <c r="H78" t="s">
+        <v>67</v>
+      </c>
+      <c r="I78" t="s">
+        <v>55</v>
+      </c>
+      <c r="J78" t="s">
+        <v>72</v>
+      </c>
+      <c r="K78" t="s">
+        <v>61</v>
+      </c>
+      <c r="L78" t="s">
+        <v>86</v>
+      </c>
+      <c r="M78" t="s">
+        <v>66</v>
+      </c>
+      <c r="N78" t="s">
+        <v>79</v>
+      </c>
+      <c r="O78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15">
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" t="s">
+        <v>68</v>
+      </c>
+      <c r="F79" t="s">
+        <v>55</v>
+      </c>
+      <c r="G79" t="s">
+        <v>70</v>
+      </c>
+      <c r="H79" t="s">
+        <v>68</v>
+      </c>
+      <c r="I79" t="s">
+        <v>66</v>
+      </c>
+      <c r="J79" t="s">
+        <v>61</v>
+      </c>
+      <c r="K79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L79" t="s">
+        <v>66</v>
+      </c>
+      <c r="M79" t="s">
+        <v>70</v>
+      </c>
+      <c r="N79" t="s">
+        <v>61</v>
+      </c>
+      <c r="O79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15">
+      <c r="B80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" t="s">
+        <v>59</v>
+      </c>
+      <c r="G80" t="s">
+        <v>66</v>
+      </c>
+      <c r="H80" t="s">
+        <v>74</v>
+      </c>
+      <c r="I80" t="s">
+        <v>73</v>
+      </c>
+      <c r="J80" t="s">
+        <v>70</v>
+      </c>
+      <c r="K80" t="s">
+        <v>97</v>
+      </c>
+      <c r="L80" t="s">
+        <v>94</v>
+      </c>
+      <c r="M80" t="s">
+        <v>66</v>
+      </c>
+      <c r="N80" t="s">
+        <v>61</v>
+      </c>
+      <c r="O80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15">
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" t="s">
+        <v>74</v>
+      </c>
+      <c r="G81" t="s">
+        <v>58</v>
+      </c>
+      <c r="H81" t="s">
+        <v>73</v>
+      </c>
+      <c r="I81" t="s">
+        <v>79</v>
+      </c>
+      <c r="J81" t="s">
+        <v>73</v>
+      </c>
+      <c r="K81" t="s">
+        <v>61</v>
+      </c>
+      <c r="L81" t="s">
+        <v>74</v>
+      </c>
+      <c r="M81" t="s">
+        <v>77</v>
+      </c>
+      <c r="N81" t="s">
+        <v>66</v>
+      </c>
+      <c r="O81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15">
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" t="s">
+        <v>52</v>
+      </c>
+      <c r="G82" t="s">
+        <v>58</v>
+      </c>
+      <c r="H82" t="s">
+        <v>73</v>
+      </c>
+      <c r="I82" t="s">
+        <v>58</v>
+      </c>
+      <c r="J82" t="s">
+        <v>66</v>
+      </c>
+      <c r="K82" t="s">
+        <v>76</v>
+      </c>
+      <c r="L82" t="s">
+        <v>74</v>
+      </c>
+      <c r="M82" t="s">
+        <v>86</v>
+      </c>
+      <c r="N82" t="s">
+        <v>82</v>
+      </c>
+      <c r="O82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15">
+      <c r="B83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" t="s">
+        <v>64</v>
+      </c>
+      <c r="H83" t="s">
+        <v>74</v>
+      </c>
+      <c r="I83" t="s">
+        <v>76</v>
+      </c>
+      <c r="J83" t="s">
+        <v>94</v>
+      </c>
+      <c r="K83" t="s">
+        <v>79</v>
+      </c>
+      <c r="L83" t="s">
+        <v>73</v>
+      </c>
+      <c r="M83" t="s">
+        <v>73</v>
+      </c>
+      <c r="N83" t="s">
+        <v>88</v>
+      </c>
+      <c r="O83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15">
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>55</v>
+      </c>
+      <c r="G84" t="s">
+        <v>58</v>
+      </c>
+      <c r="H84" t="s">
+        <v>60</v>
+      </c>
+      <c r="I84" t="s">
+        <v>61</v>
+      </c>
+      <c r="J84" t="s">
+        <v>60</v>
+      </c>
+      <c r="K84" t="s">
+        <v>66</v>
+      </c>
+      <c r="L84" t="s">
+        <v>67</v>
+      </c>
+      <c r="M84" t="s">
+        <v>58</v>
+      </c>
+      <c r="N84" t="s">
+        <v>77</v>
+      </c>
+      <c r="O84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15">
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" t="s">
+        <v>52</v>
+      </c>
+      <c r="F85" t="s">
+        <v>61</v>
+      </c>
+      <c r="G85" t="s">
+        <v>87</v>
+      </c>
+      <c r="H85" t="s">
+        <v>55</v>
+      </c>
+      <c r="I85" t="s">
+        <v>66</v>
+      </c>
+      <c r="J85" t="s">
+        <v>73</v>
+      </c>
+      <c r="K85" t="s">
+        <v>56</v>
+      </c>
+      <c r="L85" t="s">
+        <v>66</v>
+      </c>
+      <c r="M85" t="s">
+        <v>60</v>
+      </c>
+      <c r="N85" t="s">
+        <v>75</v>
+      </c>
+      <c r="O85" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>